--- a/工作宝客户端测试文档/赠品管理测试文档.xlsx
+++ b/工作宝客户端测试文档/赠品管理测试文档.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>赠品管理测试文档</t>
   </si>
@@ -27,6 +27,171 @@
   </si>
   <si>
     <t>验收结果</t>
+  </si>
+  <si>
+    <t>赠品管理上报—上报类型切换</t>
+  </si>
+  <si>
+    <t>点击赠品管理上部的tabBar切换赠品管理的上报类型(赠品采购、赠品配送、赠品发放、赠品盘库)</t>
+  </si>
+  <si>
+    <t>通过切换赠品管理的类型，显示对应类型的赠品管理上报页面</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>赠品采购上报</t>
+  </si>
+  <si>
+    <t>拍照、添加待选赠品 、添加审批单(可选)、备注信息(可选)，保存</t>
+  </si>
+  <si>
+    <t>添加待选赠品后，显示在已选赠品里面，选择审批单进入审批列表，选择后返回，保存成功</t>
+  </si>
+  <si>
+    <t>赠品配送上报</t>
+  </si>
+  <si>
+    <t>选择部门，拍照、添加待选赠品 、添加审批单(可选)、备注信息(可选)，保存</t>
+  </si>
+  <si>
+    <t>赠品发放上报</t>
+  </si>
+  <si>
+    <t>选择客户，拍照、添加待选赠品 、添加审批单(可选)、备注信息(可选)，保存</t>
+  </si>
+  <si>
+    <t>赠品盘库上报</t>
+  </si>
+  <si>
+    <t>拍照、添加待选赠品 、备注信息(可选)，保存</t>
+  </si>
+  <si>
+    <t>添加待选赠品后，显示在已选赠品里面，保存成功</t>
+  </si>
+  <si>
+    <t>赠品采购列表</t>
+  </si>
+  <si>
+    <t>上报页选择赠品采购，点击右上角的搜索图标进入列表页</t>
+  </si>
+  <si>
+    <t>显示赠品采购列表</t>
+  </si>
+  <si>
+    <t>赠品采购列表—查询</t>
+  </si>
+  <si>
+    <t>部门查询</t>
+  </si>
+  <si>
+    <t>显示所选部门的采购列表</t>
+  </si>
+  <si>
+    <t>赠品类型查询</t>
+  </si>
+  <si>
+    <t>显示所选赠品类型的采购列表</t>
+  </si>
+  <si>
+    <t>审批类型查询</t>
+  </si>
+  <si>
+    <t>显示所选审批类型的采购列表</t>
+  </si>
+  <si>
+    <t>筛选条件查询</t>
+  </si>
+  <si>
+    <t>显示所选条件的采购列表</t>
+  </si>
+  <si>
+    <t>赠品配送列表</t>
+  </si>
+  <si>
+    <t>上报页选择赠品配送，点击右上角的搜索图标进入列表页</t>
+  </si>
+  <si>
+    <t>显示赠品配送列表</t>
+  </si>
+  <si>
+    <t>赠品配送列表—查询</t>
+  </si>
+  <si>
+    <t>显示所选部门的配送列表</t>
+  </si>
+  <si>
+    <t>显示所选赠品类型的配送列表</t>
+  </si>
+  <si>
+    <t>显示所选审批类型的配送列表</t>
+  </si>
+  <si>
+    <t>显示所选条件的配送列表</t>
+  </si>
+  <si>
+    <t>赠品发放列表</t>
+  </si>
+  <si>
+    <t>上报页选择赠品发放，点击右上角的搜索图标进入列表页</t>
+  </si>
+  <si>
+    <t>显示赠品发放列表</t>
+  </si>
+  <si>
+    <t>赠品发放列表—查询</t>
+  </si>
+  <si>
+    <t>显示所选部门的发放列表</t>
+  </si>
+  <si>
+    <t>显示所选赠品类型的发放列表</t>
+  </si>
+  <si>
+    <t>显示所选审批类型的发放列表</t>
+  </si>
+  <si>
+    <t>显示所选条件的发放列表</t>
+  </si>
+  <si>
+    <t>赠品盘库列表</t>
+  </si>
+  <si>
+    <t>上报页选择赠品盘库，点击右上角的搜索图标进入列表页</t>
+  </si>
+  <si>
+    <t>显示赠品盘库列表</t>
+  </si>
+  <si>
+    <t>赠品盘库列表—查询</t>
+  </si>
+  <si>
+    <t>显示所选部门的盘库列表</t>
+  </si>
+  <si>
+    <t>显示所选赠品类型的盘库列表</t>
+  </si>
+  <si>
+    <t>显示所选条件的盘库列表</t>
+  </si>
+  <si>
+    <t>列表页的刷新</t>
+  </si>
+  <si>
+    <t>通过下拉列表，上拉列表</t>
+  </si>
+  <si>
+    <t>下拉刷新列表，上拉加载更多数据</t>
+  </si>
+  <si>
+    <t>赠品管理详情</t>
+  </si>
+  <si>
+    <t>点击赠品列表进入详情</t>
+  </si>
+  <si>
+    <t>显示与列表对应的详情</t>
   </si>
 </sst>
 </file>
@@ -36,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -48,30 +213,29 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="9"/>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="12"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -85,8 +249,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -96,6 +272,41 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -105,7 +316,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -114,10 +325,21 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -126,13 +348,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -147,7 +369,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -159,7 +381,7 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -171,7 +393,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -196,6 +418,19 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -205,41 +440,71 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -259,14 +524,115 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ff004c7f"/>
-      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffececec"/>
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603885</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17779</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1009014</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Shape 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5683885" y="4754245"/>
+          <a:ext cx="405130" cy="321310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>正常</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -280,10 +646,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -460,11 +826,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -473,27 +842,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -750,10 +1119,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1044,7 +1413,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1325,11 +1694,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D23"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1337,159 +1704,511 @@
     <col min="2" max="2" width="33.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.3516" style="1" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="20.2" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="19.95" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="19.95" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="19.95" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" t="s" s="13">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="19.95" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="19.95" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="19.95" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="19.95" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="19.95" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="19.95" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="19.95" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" ht="19.95" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" ht="19.95" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s" s="17">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" ht="19.95" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" ht="19.95" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s" s="17">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" ht="19.95" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s" s="15">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" ht="19.95" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="16">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" ht="19.95" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" ht="19.95" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="18">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" ht="19.95" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="19"/>
+      <c r="B23" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" ht="19.95" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" ht="19.95" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s" s="17">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" ht="19.95" customHeight="1">
+      <c r="A26" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s" s="15">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" ht="19.95" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" ht="19.95" customHeight="1">
+      <c r="A28" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s" s="20">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s" s="17">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" ht="19.95" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s" s="17">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" ht="19.95" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s" s="17">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" ht="19.95" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s" s="17">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" ht="19.95" customHeight="1">
+      <c r="A32" t="s" s="13">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s" s="16">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s" s="17">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" ht="19.95" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" ht="19.95" customHeight="1">
+      <c r="A34" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s" s="20">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s" s="17">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" ht="19.95" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s" s="17">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" ht="19.95" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s" s="17">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" ht="19.95" customHeight="1">
+      <c r="A37" t="s" s="13">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s" s="16">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s" s="17">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" ht="19.95" customHeight="1">
+      <c r="A38" t="s" s="13">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s" s="16">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="D38" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E38" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="38">
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1497,5 +2216,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>